--- a/sample1.xlsx
+++ b/sample1.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khor Kean Teng\Downloads\Kaggle Notebook BlueAutomata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khor Kean Teng\Downloads\Kaggle Notebook Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A8DB9C-ADB5-476D-9C7A-1A8DFE326675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C6ECA8-1C46-4B58-A2FD-3F9D96CA6A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hello World" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/sample1.xlsx
+++ b/sample1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khor Kean Teng\Downloads\Kaggle Notebook Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C6ECA8-1C46-4B58-A2FD-3F9D96CA6A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAE0AD9-B629-4FBA-9B21-5F557AB33CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,35 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Cube</t>
-  </si>
-  <si>
-    <t>map</t>
-  </si>
-  <si>
-    <t>ufo</t>
-  </si>
-  <si>
-    <t>tez</t>
-  </si>
-  <si>
     <t>Ali and Ahmad</t>
   </si>
   <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>com</t>
-  </si>
-  <si>
-    <t>wit</t>
-  </si>
-  <si>
     <t>Satoru Gojoo</t>
   </si>
   <si>
@@ -78,6 +57,9 @@
   </si>
   <si>
     <t>Anya fForger</t>
+  </si>
+  <si>
+    <t>role code</t>
   </si>
 </sst>
 </file>
@@ -398,7 +380,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -411,55 +393,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
